--- a/documents/Tasklists.xlsx
+++ b/documents/Tasklists.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>after add &amp; update record change router don’t refresh the page</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>work on end to end Zone functionality</t>
+  </si>
+  <si>
+    <t>add theme modal to the application</t>
   </si>
 </sst>
 </file>
@@ -444,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,6 +566,17 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
         <v>6</v>
       </c>
     </row>

--- a/documents/Tasklists.xlsx
+++ b/documents/Tasklists.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -450,7 +451,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
